--- a/Project Development Phase/Testing User Acceptance Testing/Testcases Report.xlsx
+++ b/Project Development Phase/Testing User Acceptance Testing/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC89448-4DEC-4A92-A30A-D0EBC2FFF421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A28A2A-43EF-455B-B966-A12F0FFC2D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="231">
   <si>
     <t>Test case ID</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>Priya D</t>
   </si>
   <si>
     <t>Customer Registration Page</t>
@@ -1270,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,9 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9009,9 +9003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9062,7 +9056,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
@@ -9165,7 +9159,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -9174,7 +9168,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>23</v>
@@ -9189,7 +9183,7 @@
         <v>28</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9200,7 +9194,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -9209,7 +9203,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>27</v>
@@ -9224,7 +9218,7 @@
         <v>28</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9235,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -9244,10 +9238,10 @@
         <v>33</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -9259,7 +9253,7 @@
         <v>28</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9270,7 +9264,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -9279,10 +9273,10 @@
         <v>33</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -9294,7 +9288,7 @@
         <v>28</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9305,7 +9299,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -9314,10 +9308,10 @@
         <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -9329,7 +9323,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9349,7 +9343,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>34</v>
@@ -9364,7 +9358,7 @@
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9384,7 +9378,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>35</v>
@@ -9399,7 +9393,7 @@
         <v>28</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9419,7 +9413,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>36</v>
@@ -9434,7 +9428,7 @@
         <v>28</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9454,7 +9448,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>37</v>
@@ -9469,7 +9463,7 @@
         <v>28</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9483,13 +9477,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>38</v>
@@ -9504,7 +9498,7 @@
         <v>28</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9518,13 +9512,13 @@
         <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>39</v>
@@ -9539,7 +9533,7 @@
         <v>28</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9553,13 +9547,13 @@
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>40</v>
@@ -9574,7 +9568,7 @@
         <v>28</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -9612,7 +9606,7 @@
         <v>28</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -9623,10 +9617,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>47</v>
@@ -9638,7 +9632,7 @@
         <v>65</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>12</v>
@@ -9650,7 +9644,7 @@
         <v>28</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9670,7 +9664,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>50</v>
@@ -9688,7 +9682,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9708,7 +9702,7 @@
         <v>43</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>53</v>
@@ -9726,7 +9720,7 @@
         <v>28</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9764,7 +9758,7 @@
         <v>28</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9802,7 +9796,7 @@
         <v>28</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9840,7 +9834,7 @@
         <v>28</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9878,7 +9872,7 @@
         <v>28</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9916,7 +9910,7 @@
         <v>28</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -9954,7 +9948,7 @@
         <v>28</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9992,7 +9986,7 @@
         <v>28</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10030,7 +10024,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10068,7 +10062,7 @@
         <v>28</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10106,7 +10100,7 @@
         <v>28</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10144,7 +10138,7 @@
         <v>28</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10155,16 +10149,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>92</v>
@@ -10179,7 +10173,7 @@
         <v>28</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10190,16 +10184,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>93</v>
@@ -10214,7 +10208,7 @@
         <v>28</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10225,16 +10219,16 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>94</v>
@@ -10249,7 +10243,7 @@
         <v>28</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10260,16 +10254,16 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>95</v>
@@ -10284,7 +10278,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10295,16 +10289,16 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>97</v>
@@ -10319,7 +10313,7 @@
         <v>28</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10330,7 +10324,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>100</v>
@@ -10354,7 +10348,7 @@
         <v>28</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10365,7 +10359,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>100</v>
@@ -10389,7 +10383,7 @@
         <v>28</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10400,7 +10394,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>100</v>
@@ -10424,7 +10418,7 @@
         <v>28</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10435,7 +10429,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>98</v>
@@ -10459,7 +10453,7 @@
         <v>28</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10470,7 +10464,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>98</v>
@@ -10494,7 +10488,7 @@
         <v>28</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10505,16 +10499,16 @@
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>111</v>
@@ -10532,7 +10526,7 @@
         <v>28</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10543,16 +10537,16 @@
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>112</v>
@@ -10570,7 +10564,7 @@
         <v>28</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10581,16 +10575,16 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>113</v>
@@ -10608,7 +10602,7 @@
         <v>28</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10619,13 +10613,13 @@
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>110</v>
@@ -10646,7 +10640,7 @@
         <v>28</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10684,7 +10678,7 @@
         <v>28</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10722,7 +10716,7 @@
         <v>28</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10760,7 +10754,7 @@
         <v>28</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10798,7 +10792,7 @@
         <v>28</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10836,7 +10830,7 @@
         <v>28</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10874,7 +10868,7 @@
         <v>28</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10912,7 +10906,7 @@
         <v>28</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10950,7 +10944,7 @@
         <v>28</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10988,7 +10982,7 @@
         <v>28</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11026,7 +11020,7 @@
         <v>28</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -11064,7 +11058,7 @@
         <v>28</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -11087,7 +11081,7 @@
         <v>147</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>148</v>
@@ -11102,7 +11096,7 @@
         <v>28</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -11125,7 +11119,7 @@
         <v>147</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>149</v>
@@ -11140,7 +11134,7 @@
         <v>28</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -11163,7 +11157,7 @@
         <v>150</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>151</v>
@@ -11178,7 +11172,7 @@
         <v>28</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -11216,7 +11210,7 @@
         <v>28</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -11254,7 +11248,7 @@
         <v>28</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11292,7 +11286,7 @@
         <v>28</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
